--- a/storage/app/public/vocabs/materials/1.0/materials.xlsx
+++ b/storage/app/public/vocabs/materials/1.0/materials.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1949">
   <si>
     <t>synonyms</t>
   </si>
@@ -113,7 +113,7 @@
     <t>https://epos-msl.uu.nl/voc/materials/1.0/sedimentary_rock-limestone-holston_limestone</t>
   </si>
   <si>
-    <t xml:space="preserve">Indiana limestone </t>
+    <t>Indiana limestone</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/materials/1.0/sedimentary_rock-limestone-indiana_limestone</t>
@@ -1133,7 +1133,7 @@
     <t>https://epos-msl.uu.nl/voc/materials/1.0/igneous_rock_-_intrusive-ultrabasic_intrusive-peridotite-san_carlos_olivine</t>
   </si>
   <si>
-    <t xml:space="preserve">synthetic peridotite </t>
+    <t>synthetic peridotite</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/materials/1.0/igneous_rock_-_intrusive-ultrabasic_intrusive-peridotite-synthetic_peridotite</t>
@@ -2888,7 +2888,7 @@
     <t>https://www.mindat.org/min-406.html</t>
   </si>
   <si>
-    <t xml:space="preserve">bischofite </t>
+    <t>bischofite</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/materials/1.0/minerals-halides-bischofite</t>
@@ -5297,13 +5297,13 @@
     <t>https://epos-msl.uu.nl/voc/materials/1.0/analogue_modelling_material-granular_modelling_material-synthetic_granular_material-polycrystalline_calcium_titanate_catio3</t>
   </si>
   <si>
-    <t xml:space="preserve">carbopol </t>
+    <t>carbopol</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/materials/1.0/analogue_modelling_material-granular_modelling_material-synthetic_granular_material-carbopol</t>
   </si>
   <si>
-    <t xml:space="preserve">natrosol </t>
+    <t>natrosol</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/materials/1.0/analogue_modelling_material-granular_modelling_material-synthetic_granular_material-natrosol</t>
@@ -5552,7 +5552,7 @@
     <t>https://epos-msl.uu.nl/voc/materials/1.0/analogue_modelling_material-elastic_modelling_material-synthetic_elastic_material-silicone_foam</t>
   </si>
   <si>
-    <t xml:space="preserve">polystyrene foam </t>
+    <t>polystyrene foam</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/materials/1.0/analogue_modelling_material-elastic_modelling_material-synthetic_elastic_material-polystyrene_foam</t>
@@ -5648,15 +5648,12 @@
     <t>https://epos-msl.uu.nl/voc/materials/1.0/analogue_modelling_material-viscous_modelling_material-synthetic_viscous_material-glycerine</t>
   </si>
   <si>
-    <t xml:space="preserve">polytungstate </t>
+    <t>polytungstate</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/materials/1.0/analogue_modelling_material-viscous_modelling_material-synthetic_viscous_material-polytungstate</t>
   </si>
   <si>
-    <t>natrosol</t>
-  </si>
-  <si>
     <t>https://epos-msl.uu.nl/voc/materials/1.0/analogue_modelling_material-viscous_modelling_material-synthetic_viscous_material-natrosol</t>
   </si>
   <si>
@@ -5834,7 +5831,7 @@
     <t>https://epos-msl.uu.nl/voc/materials/1.0/synthesized_material-concrete_construction</t>
   </si>
   <si>
-    <t xml:space="preserve">fabricated glass </t>
+    <t>fabricated glass</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/materials/1.0/synthesized_material-fabricated_glass</t>
@@ -13265,279 +13262,279 @@
     </row>
     <row r="665" spans="1:9">
       <c r="D665" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G665" t="s">
         <v>1879</v>
-      </c>
-      <c r="G665" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="666" spans="1:9">
       <c r="C666" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G666" t="s">
         <v>1881</v>
-      </c>
-      <c r="G666" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="667" spans="1:9">
       <c r="D667" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G667" t="s">
         <v>1883</v>
-      </c>
-      <c r="G667" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="668" spans="1:9">
       <c r="D668" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G668" t="s">
         <v>1885</v>
-      </c>
-      <c r="G668" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="669" spans="1:9">
       <c r="D669" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G669" t="s">
         <v>1887</v>
-      </c>
-      <c r="G669" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="670" spans="1:9">
       <c r="D670" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F670" t="s">
         <v>1889</v>
       </c>
-      <c r="F670" t="s">
+      <c r="G670" t="s">
         <v>1890</v>
-      </c>
-      <c r="G670" t="s">
-        <v>1891</v>
       </c>
     </row>
     <row r="671" spans="1:9">
       <c r="D671" t="s">
+        <v>1891</v>
+      </c>
+      <c r="G671" t="s">
         <v>1892</v>
-      </c>
-      <c r="G671" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="672" spans="1:9">
       <c r="D672" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G672" t="s">
         <v>1894</v>
-      </c>
-      <c r="G672" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="673" spans="1:9">
       <c r="D673" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G673" t="s">
         <v>1896</v>
-      </c>
-      <c r="G673" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="674" spans="1:9">
       <c r="B674" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G674" t="s">
         <v>1898</v>
-      </c>
-      <c r="G674" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="675" spans="1:9">
       <c r="C675" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G675" t="s">
         <v>1900</v>
-      </c>
-      <c r="G675" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="676" spans="1:9">
       <c r="D676" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G676" t="s">
         <v>1902</v>
-      </c>
-      <c r="G676" t="s">
-        <v>1903</v>
       </c>
     </row>
     <row r="677" spans="1:9">
       <c r="C677" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G677" t="s">
         <v>1904</v>
-      </c>
-      <c r="G677" t="s">
-        <v>1905</v>
       </c>
     </row>
     <row r="678" spans="1:9">
       <c r="D678" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G678" t="s">
         <v>1906</v>
-      </c>
-      <c r="G678" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="679" spans="1:9">
       <c r="D679" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G679" t="s">
         <v>1908</v>
-      </c>
-      <c r="G679" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="680" spans="1:9">
       <c r="D680" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G680" t="s">
         <v>1910</v>
-      </c>
-      <c r="G680" t="s">
-        <v>1911</v>
       </c>
     </row>
     <row r="681" spans="1:9">
       <c r="D681" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F681" t="s">
         <v>1912</v>
       </c>
-      <c r="F681" t="s">
+      <c r="G681" t="s">
         <v>1913</v>
-      </c>
-      <c r="G681" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="682" spans="1:9">
       <c r="C682" t="s">
+        <v>1914</v>
+      </c>
+      <c r="G682" t="s">
         <v>1915</v>
-      </c>
-      <c r="G682" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="683" spans="1:9">
       <c r="D683" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G683" t="s">
         <v>1917</v>
-      </c>
-      <c r="G683" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="684" spans="1:9">
       <c r="E684" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G684" t="s">
         <v>1919</v>
-      </c>
-      <c r="G684" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="685" spans="1:9">
       <c r="E685" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G685" t="s">
         <v>1921</v>
-      </c>
-      <c r="G685" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="686" spans="1:9">
       <c r="D686" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G686" t="s">
         <v>1923</v>
-      </c>
-      <c r="G686" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="687" spans="1:9">
       <c r="E687" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G687" t="s">
         <v>1925</v>
-      </c>
-      <c r="G687" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="688" spans="1:9">
       <c r="A688" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F688" t="s">
         <v>1927</v>
       </c>
-      <c r="F688" t="s">
+      <c r="G688" t="s">
         <v>1928</v>
-      </c>
-      <c r="G688" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="689" spans="1:9">
       <c r="B689" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F689" t="s">
         <v>1930</v>
       </c>
-      <c r="F689" t="s">
+      <c r="G689" t="s">
         <v>1931</v>
-      </c>
-      <c r="G689" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="690" spans="1:9">
       <c r="B690" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F690" t="s">
         <v>1933</v>
       </c>
-      <c r="F690" t="s">
+      <c r="G690" t="s">
         <v>1934</v>
-      </c>
-      <c r="G690" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="691" spans="1:9">
       <c r="B691" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F691" t="s">
         <v>1936</v>
       </c>
-      <c r="F691" t="s">
+      <c r="G691" t="s">
         <v>1937</v>
-      </c>
-      <c r="G691" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="692" spans="1:9">
       <c r="B692" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G692" t="s">
         <v>1939</v>
-      </c>
-      <c r="G692" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="693" spans="1:9">
       <c r="B693" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F693" t="s">
         <v>1941</v>
       </c>
-      <c r="F693" t="s">
+      <c r="G693" t="s">
         <v>1942</v>
-      </c>
-      <c r="G693" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="694" spans="1:9">
       <c r="C694" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G694" t="s">
         <v>1944</v>
-      </c>
-      <c r="G694" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="695" spans="1:9">
       <c r="C695" t="s">
+        <v>1945</v>
+      </c>
+      <c r="G695" t="s">
         <v>1946</v>
-      </c>
-      <c r="G695" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="696" spans="1:9">
       <c r="C696" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G696" t="s">
         <v>1948</v>
-      </c>
-      <c r="G696" t="s">
-        <v>1949</v>
       </c>
     </row>
   </sheetData>
